--- a/POS/POS_Icon_List.xlsx
+++ b/POS/POS_Icon_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="12615"/>
+    <workbookView windowWidth="28695" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t xml:space="preserve">  Administration</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Merge Kot</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>View Bill</t>
   </si>
   <si>
@@ -53,6 +56,57 @@
   </si>
   <si>
     <t>Hold/Unhold</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>My Account</t>
+  </si>
+  <si>
+    <t>Edit Profile</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Sub Total</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Filter/Wheel</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Folder Open</t>
+  </si>
+  <si>
+    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -60,12 +114,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,29 +135,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,6 +172,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -125,48 +187,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,9 +249,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,6 +264,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -203,21 +279,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -240,197 +302,227 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,17 +561,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,21 +575,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,11 +594,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,130 +631,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -688,8 +765,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1010,10 +1087,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD13"/>
+  <dimension ref="A1:XFD34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1022,68 +1099,240 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
